--- a/DDF/Phase2.1/TY_05/Collection.xlsx
+++ b/DDF/Phase2.1/TY_05/Collection.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="112">
   <si>
     <t>Test Cases</t>
   </si>
@@ -345,6 +345,21 @@
   </si>
   <si>
     <t>Folio number should be atleast 6 characters</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>TC_114</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Accept pending charges with a sale date</t>
+  </si>
+  <si>
+    <t>Vanload Stock Applied</t>
   </si>
 </sst>
 </file>
@@ -692,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -708,7 +723,7 @@
     <col min="7" max="7" width="29.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -718,18 +733,27 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -751,8 +775,11 @@
       <c r="G4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -762,53 +789,74 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="3">
         <v>58.32</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2">
         <v>58.32</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -821,8 +869,11 @@
       <c r="E12">
         <v>1234</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -832,13 +883,19 @@
       <c r="D13">
         <v>25.32</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -851,8 +908,11 @@
       <c r="E15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -862,8 +922,11 @@
       <c r="D16">
         <v>58.32</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -873,101 +936,149 @@
       <c r="D17" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="C26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>30</v>
       </c>
       <c r="C27" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>36</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>38</v>
       </c>
       <c r="C32">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -980,8 +1091,11 @@
       <c r="E33">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -991,34 +1105,46 @@
       <c r="D34">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>42</v>
       </c>
       <c r="C36">
         <v>60</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>43</v>
       </c>
       <c r="C37">
         <v>60</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1026,7 +1152,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -1034,12 +1160,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -1047,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -1058,7 +1184,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -1066,7 +1192,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -1080,12 +1206,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -1099,7 +1225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -1238,7 +1364,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>26</v>
       </c>
@@ -1246,7 +1372,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>27</v>
       </c>
@@ -1257,7 +1383,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -1274,7 +1400,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -1285,7 +1411,7 @@
         <v>10.95</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>30</v>
       </c>
@@ -1293,7 +1419,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>84</v>
       </c>
@@ -1309,16 +1435,22 @@
       <c r="F70" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>87</v>
       </c>
+      <c r="B71">
+        <v>30</v>
+      </c>
       <c r="C71">
         <v>1147.5</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>88</v>
       </c>
@@ -1329,7 +1461,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>90</v>
       </c>
@@ -1340,7 +1472,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>92</v>
       </c>
@@ -1348,7 +1480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>93</v>
       </c>
@@ -1365,7 +1497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>94</v>
       </c>
@@ -1379,7 +1511,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>34</v>
       </c>
@@ -1393,7 +1525,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>101</v>
       </c>
@@ -1404,7 +1536,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>103</v>
       </c>
@@ -1413,6 +1545,20 @@
       </c>
       <c r="D79" s="8" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>108</v>
+      </c>
+      <c r="B80">
+        <v>20</v>
+      </c>
+      <c r="C80" t="s">
+        <v>110</v>
+      </c>
+      <c r="D80" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/DDF/Phase2.1/TY_05/Collection.xlsx
+++ b/DDF/Phase2.1/TY_05/Collection.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Music\Bimbo Mobile (2)\Bimbo Mobile\DDF\Phase2.1\TY_05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Music\Mergedfinal\Bimbo Mobile-TY\Bimbo Mobile-TY\DDF\Phase2.1\TY_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -710,7 +710,7 @@
   <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1449,6 +1449,9 @@
       <c r="C71">
         <v>1147.5</v>
       </c>
+      <c r="D71">
+        <v>1211.25</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
